--- a/database/sales.xlsx
+++ b/database/sales.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2398,8 +2398,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>56</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2424,8 +2426,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>56</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2450,8 +2454,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>56</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2472,6 +2478,88 @@
       <c r="F69" t="inlineStr">
         <is>
           <t>23/08/2024-16:56:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>23/08/2024-18:50:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>7890789078907890</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>23/08/2024-18:50:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>382190839201839201</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>23/08/2024-18:56:52</t>
         </is>
       </c>
     </row>
